--- a/metadata/rnaseq/todo/University of Florida TMC (RNAseq).xlsx
+++ b/metadata/rnaseq/todo/University of Florida TMC (RNAseq).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
+          <t>10x Genomics; Chromium Next GEM Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000175</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -703,12 +703,12 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
+          <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -725,12 +725,12 @@
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+          <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -747,12 +747,12 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -769,17 +769,17 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
+          <t>10x Genomics; Chromium i7 Multiplex Kit N, Set A, 96 rxn; PN 1000084</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -791,12 +791,17 @@
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+          <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Integrated DNA Technologies: Custom DNA Oligos</t>
+          <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -808,12 +813,12 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+          <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
+          <t>Integrated DNA Technologies: Custom DNA Oligos</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -825,12 +830,12 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
+          <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+          <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -842,12 +847,12 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
+          <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
+          <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -859,12 +864,12 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
+          <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+          <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -876,12 +881,12 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+          <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
+          <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -893,7 +898,12 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
+          <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -905,7 +915,7 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -917,7 +927,7 @@
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+          <t>10x Genomics; Chromium Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000110</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -929,7 +939,7 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
+          <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -941,7 +951,7 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
+          <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -953,7 +963,7 @@
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
+          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -965,7 +975,7 @@
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -977,7 +987,7 @@
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -989,7 +999,7 @@
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1001,7 +1011,7 @@
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1013,7 +1023,7 @@
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1025,40 +1035,54 @@
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
+          <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
+          <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+          <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
         <is>
           <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
         </is>
@@ -2310,7 +2334,7 @@
   <autoFilter ref="A1:E53"/>
   <dataValidations count="2">
     <dataValidation sqref="D2 D4 D6 D8 D10 D12 D14 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36 D38 D40 D42 D44 D46 D48 D50 D52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$12</formula1>
+      <formula1>_validation_data!$D$1:$D$13</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D5 D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D51 D53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$F$1:$F$29</formula1>
@@ -8180,10 +8204,10 @@
       <formula1>_validation_data!$B$1:$B$2</formula1>
     </dataValidation>
     <dataValidation sqref="C7 C20 C32 C44 C56 C69 C81 C94 C106 C119 C132 C145 C157 C169 C182 C194 C206 C219 C231 C243 C256 C268 C280 C292 C305 C317" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$35</formula1>
+      <formula1>_validation_data!$C$1:$C$37</formula1>
     </dataValidation>
     <dataValidation sqref="C8 C21 C33 C45 C57 C70 C82 C95 C107 C120 C133 C146 C158 C170 C183 C195 C207 C220 C232 C244 C257 C269 C281 C293 C306 C318" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$18</formula1>
+      <formula1>_validation_data!$E$1:$E$19</formula1>
     </dataValidation>
     <dataValidation sqref="C10 C23 C35 C47 C59 C72 C84 C97 C109 C122 C135 C148 C160 C172 C185 C197 C209 C222 C234 C246 C259 C271 C283 C295 C308 C320" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$G$1:$G$5</formula1>

--- a/metadata/rnaseq/todo/University of Florida TMC (RNAseq).xlsx
+++ b/metadata/rnaseq/todo/University of Florida TMC (RNAseq).xlsx
@@ -13,8 +13,8 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$298</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1099,7 +1099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1142,12 +1142,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1165,12 +1165,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -1183,23 +1183,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM252.HMBK.543</t>
+          <t>HBM226.LBVC.946</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.HMBK.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM226.LBVC.946</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1229,7 +1229,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM263.TLLN.467</t>
+          <t>HBM252.HMBK.543</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1245,14 +1245,14 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM252.HMBK.543</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM263.TLLN.467</t>
+          <t>HBM252.HMBK.543</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1262,94 +1262,94 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM252.HMBK.543</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM267.GWND.796</t>
+          <t>HBM263.TLLN.467</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM267.GWND.796</t>
+          <t>HBM263.TLLN.467</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM295.MMTQ.529</t>
+          <t>HBM263.TLLN.467</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM295.MMTQ.529</t>
+          <t>HBM267.GWND.796</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1360,14 +1360,14 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM336.FWTN.636</t>
+          <t>HBM267.GWND.796</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1383,14 +1383,14 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM336.FWTN.636</t>
+          <t>HBM267.GWND.796</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1400,94 +1400,94 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM295.MMTQ.529</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM295.MMTQ.529</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM295.MMTQ.529</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM336.FWTN.636</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1498,14 +1498,14 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM336.FWTN.636</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1521,14 +1521,14 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM336.FWTN.636</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1538,94 +1538,94 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1636,14 +1636,14 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1659,14 +1659,14 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1676,94 +1676,94 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1774,14 +1774,14 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1797,14 +1797,14 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1814,94 +1814,94 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1912,14 +1912,14 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1935,14 +1935,14 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1952,94 +1952,94 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2050,14 +2050,14 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2073,14 +2073,14 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2090,94 +2090,94 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2188,14 +2188,14 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2211,14 +2211,14 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2228,94 +2228,94 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM984.GRBB.858</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM984.GRBB.858</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>preparation_instrument_kit</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM992.DRDZ.999</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>preparation_instrument_kit</t>
+          <t>sequencing_reagent_kit</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM992.DRDZ.999</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sequencing_reagent_kit</t>
+          <t>library_preparation_kit</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2326,17 +2326,618 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HBM749.WHLC.649</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HBM749.WHLC.649</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HBM844.GDWH.846</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>library_preparation_kit</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HBM844.GDWH.846</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HBM844.GDWH.846</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HBM868.BXNB.448</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>library_preparation_kit</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HBM868.BXNB.448</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HBM868.BXNB.448</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HBM895.WHGJ.263</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>library_preparation_kit</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HBM895.WHGJ.263</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HBM895.WHGJ.263</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HBM929.BRVT.339</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>library_preparation_kit</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HBM929.BRVT.339</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HBM929.BRVT.339</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HBM962.BSVN.575</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>library_preparation_kit</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HBM962.BSVN.575</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HBM962.BSVN.575</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HBM978.DVCP.278</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>library_preparation_kit</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HBM978.DVCP.278</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>HBM978.DVCP.278</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>HBM984.GRBB.858</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>library_preparation_kit</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HBM984.GRBB.858</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HBM984.GRBB.858</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HBM992.DRDZ.999</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>library_preparation_kit</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HBM992.DRDZ.999</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>preparation_instrument_kit</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>HBM992.DRDZ.999</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sequencing_reagent_kit</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E53"/>
-  <dataValidations count="2">
-    <dataValidation sqref="D2 D4 D6 D8 D10 D12 D14 D16 D18 D20 D22 D24 D26 D28 D30 D32 D34 D36 D38 D40 D42 D44 D46 D48 D50 D52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E79"/>
+  <dataValidations count="3">
+    <dataValidation sqref="D2 D5 D8 D11 D14 D17 D20 D23 D26 D29 D32 D35 D38 D41 D44 D47 D50 D53 D56 D59 D62 D65 D68 D71 D74 D77" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$37</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3 D6 D9 D12 D15 D18 D21 D24 D27 D30 D33 D36 D39 D42 D45 D48 D51 D54 D57 D60 D63 D66 D69 D72 D75 D78" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$13</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D5 D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27 D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D51 D53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D7 D10 D13 D16 D19 D22 D25 D28 D31 D34 D37 D40 D43 D46 D49 D52 D55 D58 D61 D64 D67 D70 D73 D76 D79" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$F$1:$F$29</formula1>
     </dataValidation>
   </dataValidations>
@@ -2350,7 +2951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D324"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,7 +3079,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -2496,7 +3097,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -2514,7 +3115,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -2532,7 +3133,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -2550,7 +3151,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -2568,7 +3169,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2586,7 +3187,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2599,18 +3200,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM226.LBVC.946</t>
+          <t>HBM252.HMBK.543</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM226.LBVC.946</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM252.HMBK.543</t>
         </is>
       </c>
     </row>
@@ -2622,7 +3223,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2640,7 +3241,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2658,7 +3259,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2676,7 +3277,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2694,7 +3295,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -2712,7 +3313,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2730,7 +3331,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2748,7 +3349,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -2766,7 +3367,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -2784,7 +3385,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2802,7 +3403,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -2815,36 +3416,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM252.HMBK.543</t>
+          <t>HBM263.TLLN.467</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.HMBK.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM252.HMBK.543</t>
+          <t>HBM263.TLLN.467</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.HMBK.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
         </is>
       </c>
     </row>
@@ -2856,7 +3457,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -2874,7 +3475,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -2892,7 +3493,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -2910,7 +3511,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2928,7 +3529,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2946,7 +3547,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -2964,7 +3565,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -2982,7 +3583,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -3000,7 +3601,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -3013,54 +3614,54 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM263.TLLN.467</t>
+          <t>HBM267.GWND.796</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM263.TLLN.467</t>
+          <t>HBM267.GWND.796</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM263.TLLN.467</t>
+          <t>HBM267.GWND.796</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM263.TLLN.467</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3673,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -3090,7 +3691,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -3108,7 +3709,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -3126,7 +3727,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -3144,7 +3745,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -3162,7 +3763,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -3180,7 +3781,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -3198,7 +3799,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -3211,72 +3812,72 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM267.GWND.796</t>
+          <t>HBM295.MMTQ.529</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM267.GWND.796</t>
+          <t>HBM295.MMTQ.529</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM267.GWND.796</t>
+          <t>HBM295.MMTQ.529</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM267.GWND.796</t>
+          <t>HBM295.MMTQ.529</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM267.GWND.796</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3889,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -3306,7 +3907,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -3324,7 +3925,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -3342,7 +3943,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -3360,7 +3961,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -3378,7 +3979,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -3396,7 +3997,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -3409,90 +4010,90 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM295.MMTQ.529</t>
+          <t>HBM336.FWTN.636</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM295.MMTQ.529</t>
+          <t>HBM336.FWTN.636</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM295.MMTQ.529</t>
+          <t>HBM336.FWTN.636</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM295.MMTQ.529</t>
+          <t>HBM336.FWTN.636</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM295.MMTQ.529</t>
+          <t>HBM336.FWTN.636</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.MMTQ.529</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
         </is>
       </c>
     </row>
@@ -3504,7 +4105,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3522,7 +4123,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3540,7 +4141,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3558,7 +4159,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3576,7 +4177,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3594,7 +4195,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3612,7 +4213,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3625,108 +4226,108 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM336.FWTN.636</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM336.FWTN.636</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM336.FWTN.636</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM336.FWTN.636</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM336.FWTN.636</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM336.FWTN.636</t>
+          <t>HBM354.GTPP.329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM336.FWTN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
         </is>
       </c>
     </row>
@@ -3738,7 +4339,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3756,7 +4357,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3774,7 +4375,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3792,7 +4393,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3810,7 +4411,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3823,126 +4424,126 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM354.GTPP.329</t>
+          <t>HBM373.RTKK.586</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM354.GTPP.329</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
         </is>
       </c>
     </row>
@@ -3954,7 +4555,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3972,7 +4573,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3990,7 +4591,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4008,7 +4609,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4026,7 +4627,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4039,144 +4640,144 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM373.RTKK.586</t>
+          <t>HBM376.TQFR.354</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM373.RTKK.586</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4789,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4206,7 +4807,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4224,7 +4825,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4237,162 +4838,162 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM376.TQFR.354</t>
+          <t>HBM457.SQKR.279</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM376.TQFR.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
         </is>
       </c>
     </row>
@@ -4404,7 +5005,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4422,7 +5023,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4440,7 +5041,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4453,180 +5054,180 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM457.SQKR.279</t>
+          <t>HBM472.NTNN.543</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM457.SQKR.279</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
         </is>
       </c>
     </row>
@@ -4638,7 +5239,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -4656,7 +5257,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -4669,198 +5270,198 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HBM472.NTNN.543</t>
+          <t>HBM556.QMSM.776</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NTNN.543</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
         </is>
       </c>
     </row>
@@ -4872,7 +5473,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -4885,7 +5486,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4896,14 +5497,14 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4914,14 +5515,14 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4932,14 +5533,14 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4950,2246 +5551,2246 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM626.FHJD.938</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HBM556.QMSM.776</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.QMSM.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM644.LHFR.583</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>HBM626.FHJD.938</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM626.FHJD.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM724.ZKSM.924</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HBM644.LHFR.583</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.LHFR.583</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM727.CLDW.546</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HBM724.ZKSM.924</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM724.ZKSM.924</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM743.FGPZ.867</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HBM727.CLDW.546</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM727.CLDW.546</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM749.WHLC.649</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HBM743.FGPZ.867</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM743.FGPZ.867</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM844.GDWH.846</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>HBM749.WHLC.649</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.WHLC.649</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM868.BXNB.448</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>HBM844.GDWH.846</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM844.GDWH.846</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM895.WHGJ.263</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>HBM868.BXNB.448</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM868.BXNB.448</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>contributors_path</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM929.BRVT.339</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>HBM895.WHGJ.263</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>umi_size</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM895.WHGJ.263</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM962.BSVN.575</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -7200,14 +7801,14 @@
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -7218,14 +7819,14 @@
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -7236,14 +7837,14 @@
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -7254,14 +7855,14 @@
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -7272,14 +7873,14 @@
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -7290,14 +7891,14 @@
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>HBM929.BRVT.339</t>
+          <t>HBM978.DVCP.278</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -7308,104 +7909,104 @@
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM929.BRVT.339</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>library_concentration_unit</t>
+          <t>contributors_path</t>
         </is>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>library_concentration_value</t>
+          <t>library_concentration_unit</t>
         </is>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>library_input_amount_unit</t>
+          <t>library_concentration_value</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>library_input_amount_value</t>
+          <t>library_input_amount_unit</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>library_input_amount_value</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -7416,14 +8017,14 @@
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -7434,14 +8035,14 @@
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -7452,14 +8053,14 @@
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -7470,14 +8071,14 @@
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -7488,14 +8089,14 @@
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -7506,14 +8107,14 @@
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>HBM962.BSVN.575</t>
+          <t>HBM984.GRBB.858</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -7524,14 +8125,14 @@
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.BSVN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -7542,14 +8143,14 @@
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -7560,14 +8161,14 @@
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -7578,14 +8179,14 @@
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -7596,629 +8197,158 @@
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>library_preparation_kit</t>
+          <t>sample_indexing_kit</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>sample_indexing_kit</t>
+          <t>sample_indexing_set</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>sample_indexing_set</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>umi_offset</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>umi_offset</t>
+          <t>umi_read</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>HBM978.DVCP.278</t>
+          <t>HBM992.DRDZ.999</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>umi_read</t>
+          <t>umi_size</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>HBM978.DVCP.278</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>umi_size</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM978.DVCP.278</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>contributors_path</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>library_concentration_unit</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>library_concentration_value</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>library_input_amount_unit</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>library_input_amount_value</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>library_preparation_kit</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>sample_indexing_set</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>umi_offset</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>umi_read</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>HBM984.GRBB.858</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>umi_size</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM984.GRBB.858</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>library_concentration_unit</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
         </is>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>library_concentration_value</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>library_input_amount_unit</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>library_input_amount_value</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>library_preparation_kit</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>sample_indexing_kit</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>sample_indexing_set</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>umi_offset</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>umi_read</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>HBM992.DRDZ.999</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>umi_size</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM992.DRDZ.999</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D324"/>
-  <dataValidations count="8">
-    <dataValidation sqref="C3 C16 C28 C40 C52 C65 C77 C90 C102 C115 C128 C141 C153 C165 C178 C190 C202 C215 C227 C239 C252 C264 C276 C288 C301 C313" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:D298"/>
+  <dataValidations count="7">
+    <dataValidation sqref="C3 C15 C26 C37 C48 C60 C71 C83 C94 C106 C118 C130 C141 C152 C164 C175 C186 C198 C209 C220 C232 C243 C254 C265 C277 C288" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="C5 C18 C30 C42 C54 C67 C79 C92 C104 C117 C130 C143 C155 C167 C180 C192 C204 C217 C229 C241 C254 C266 C278 C290 C303 C315" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C5 C17 C28 C39 C50 C62 C73 C85 C96 C108 C120 C132 C143 C154 C166 C177 C188 C200 C211 C222 C234 C245 C256 C267 C279 C290" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation sqref="C7 C20 C32 C44 C56 C69 C81 C94 C106 C119 C132 C145 C157 C169 C182 C194 C206 C219 C231 C243 C256 C268 C280 C292 C305 C317" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$37</formula1>
-    </dataValidation>
-    <dataValidation sqref="C8 C21 C33 C45 C57 C70 C82 C95 C107 C120 C133 C146 C158 C170 C183 C195 C207 C220 C232 C244 C257 C269 C281 C293 C306 C318" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C7 C19 C30 C41 C52 C64 C75 C87 C98 C110 C122 C134 C145 C156 C168 C179 C190 C202 C213 C224 C236 C247 C258 C269 C281 C292" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$E$1:$E$19</formula1>
     </dataValidation>
-    <dataValidation sqref="C10 C23 C35 C47 C59 C72 C84 C97 C109 C122 C135 C148 C160 C172 C185 C197 C209 C222 C234 C246 C259 C271 C283 C295 C308 C320" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C9 C21 C32 C43 C54 C66 C77 C89 C100 C112 C124 C136 C147 C158 C170 C181 C192 C204 C215 C226 C238 C249 C260 C271 C283 C294" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$G$1:$G$5</formula1>
     </dataValidation>
-    <dataValidation sqref="C12 C25 C37 C49 C61 C74 C86 C99 C111 C124 C137 C150 C162 C174 C187 C199 C211 C224 C236 C248 C261 C273 C285 C297 C310 C322" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C11 C23 C34 C45 C56 C68 C79 C91 C102 C114 C126 C138 C149 C160 C172 C183 C194 C206 C217 C228 C240 C251 C262 C273 C285 C296" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$H$1:$H$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C13 C26 C38 C50 C62 C75 C87 C100 C112 C125 C138 C151 C163 C175 C188 C200 C212 C225 C237 C249 C262 C274 C286 C298 C311 C323" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C12 C24 C35 C46 C57 C69 C80 C92 C103 C115 C127 C139 C150 C161 C173 C184 C195 C207 C218 C229 C241 C252 C263 C274 C286 C297" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$I$1:$I$3</formula1>
     </dataValidation>
-    <dataValidation sqref="C14 C27 C39 C51 C63 C76 C88 C101 C113 C126 C139 C152 C164 C176 C189 C201 C213 C226 C238 C250 C263 C275 C287 C299 C312 C324" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="C13 C25 C36 C47 C58 C70 C81 C93 C104 C116 C128 C140 C151 C162 C174 C185 C196 C208 C219 C230 C242 C253 C264 C275 C287 C298" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$J$1:$J$5</formula1>
     </dataValidation>
   </dataValidations>
